--- a/docs/ARTEFATOS(15-23)/Realizar_Planejamento_Financeiro/Analise_de_Eventos_realizar_planejamento_financeiro.xlsx
+++ b/docs/ARTEFATOS(15-23)/Realizar_Planejamento_Financeiro/Analise_de_Eventos_realizar_planejamento_financeiro.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhHOiHpgs0pOmTm6Jwgi7qtyxgvWQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mge7BXgdOFSyIlcvUMVSdCE2U8SnQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -242,19 +242,19 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,12 +263,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -490,7 +484,8 @@
     <col customWidth="1" min="3" max="3" width="4.0"/>
     <col customWidth="1" min="4" max="4" width="37.43"/>
     <col customWidth="1" min="5" max="5" width="10.86"/>
-    <col customWidth="1" min="6" max="9" width="11.57"/>
+    <col customWidth="1" min="6" max="6" width="15.43"/>
+    <col customWidth="1" min="7" max="9" width="11.57"/>
     <col customWidth="1" min="10" max="10" width="16.86"/>
     <col customWidth="1" min="11" max="26" width="11.57"/>
   </cols>
@@ -510,7 +505,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -548,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="12">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -566,17 +561,17 @@
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="12">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
